--- a/vertx-pin/zero-is/src/main/resources/plugin/is/oob/data/is.menu.xlsx
+++ b/vertx-pin/zero-is/src/main/resources/plugin/is/oob/data/is.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-is/src/main/resources/plugin/is/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A329FC1A-7178-5742-9564-7B4970CE707A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D635BD3F-A39C-2F4E-8925-2DDB956B64A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54340" yWindow="-3520" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="40980" yWindow="-1620" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -109,30 +109,110 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>zero.system.document</t>
+    <t>文档管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>container</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3733ccc2-3799-4095-a01a-b8bdbbe9211d</t>
+  </si>
+  <si>
+    <t>24719b19-ea7f-46a2-a808-65c1839ca001</t>
+  </si>
+  <si>
+    <t>EXPAND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>af4567a8-9551-44a7-b26a-4b723dbd9d6f</t>
+  </si>
+  <si>
+    <t>zero.document</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文档管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>container</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/system/document</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3733ccc2-3799-4095-a01a-b8bdbbe9211d</t>
+    <t>FTP配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>folder-open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/integration/document</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7627312-6912-47a6-b1df-f2a334ddf450</t>
+  </si>
+  <si>
+    <t>4801ae80-8f45-48ae-aec1-a897723958f4</t>
+  </si>
+  <si>
+    <t>邮件配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.integration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.integration.ftp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.integration.email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.integration.sms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEV-MENU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/integration/ftp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/integration/email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/integration/sms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +267,14 @@
     <font>
       <sz val="16"/>
       <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -258,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -299,6 +387,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -617,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:K5"/>
+  <dimension ref="A2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A5:XFD18"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -646,16 +740,16 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
@@ -723,7 +817,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="12" t="s">
@@ -736,19 +830,140 @@
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>26</v>
-      </c>
       <c r="I5" s="13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="6">
+        <v>70000</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f>A$6</f>
+        <v>24719b19-ea7f-46a2-a808-65c1839ca001</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1005</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f t="shared" ref="B8:B9" si="0">A$6</f>
+        <v>24719b19-ea7f-46a2-a808-65c1839ca001</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1005</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>24719b19-ea7f-46a2-a808-65c1839ca001</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1005</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-is/src/main/resources/plugin/is/oob/data/is.menu.xlsx
+++ b/vertx-pin/zero-is/src/main/resources/plugin/is/oob/data/is.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-is/src/main/resources/plugin/is/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D635BD3F-A39C-2F4E-8925-2DDB956B64A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748383BA-6683-0C4D-A55B-6B1049490568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40980" yWindow="-1620" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="65260" yWindow="-3560" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -206,6 +206,40 @@
   <si>
     <t>/integration/sms</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.data.document</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed2005bd-0597-4800-87fd-80072c8d7046</t>
+  </si>
+  <si>
+    <t>cluster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ambient/category/zero.file.tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.data.document.file-tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25cc6712-dba9-466e-8794-e3db6f7a1fac</t>
   </si>
 </sst>
 </file>
@@ -346,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,6 +430,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:K9"/>
+  <dimension ref="A2:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -846,26 +883,28 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="C6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="6">
-        <v>70000</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1005</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>28</v>
@@ -875,93 +914,154 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="8" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>A$6</f>
-        <v>24719b19-ea7f-46a2-a808-65c1839ca001</v>
+        <v>ed2005bd-0597-4800-87fd-80072c8d7046</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D7" s="16">
         <v>1005</v>
       </c>
-      <c r="E7" s="9">
-        <v>2</v>
+      <c r="E7" s="18">
+        <v>3</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="8" t="str">
-        <f t="shared" ref="B8:B9" si="0">A$6</f>
-        <v>24719b19-ea7f-46a2-a808-65c1839ca001</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="16">
-        <v>1005</v>
+      <c r="D8" s="6">
+        <v>70000</v>
       </c>
       <c r="E8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>48</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f>A$8</f>
+        <v>24719b19-ea7f-46a2-a808-65c1839ca001</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1005</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f t="shared" ref="B10:B11" si="0">A$8</f>
+        <v>24719b19-ea7f-46a2-a808-65c1839ca001</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1005</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="8" t="str">
+      <c r="B11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>24719b19-ea7f-46a2-a808-65c1839ca001</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D11" s="16">
         <v>1005</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E11" s="9">
         <v>2</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I11" s="13" t="s">
         <v>49</v>
       </c>
     </row>

--- a/vertx-pin/zero-is/src/main/resources/plugin/is/oob/data/is.menu.xlsx
+++ b/vertx-pin/zero-is/src/main/resources/plugin/is/oob/data/is.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-is/src/main/resources/plugin/is/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{748383BA-6683-0C4D-A55B-6B1049490568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEF9CCE-13F7-5C4D-8C67-1915792E6A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="65260" yWindow="-3560" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>name</t>
   </si>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>folder-open</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/integration/document</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -240,6 +236,29 @@
   </si>
   <si>
     <t>25cc6712-dba9-466e-8794-e3db6f7a1fac</t>
+  </si>
+  <si>
+    <t>develop.integration.dir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/integration/directory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>folder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-sync</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3b08af07-47c4-4299-8d42-b94e035b63d2</t>
   </si>
 </sst>
 </file>
@@ -428,11 +447,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:K11"/>
+  <dimension ref="A2:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -777,16 +796,16 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
@@ -876,17 +895,17 @@
         <v>25</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>23</v>
@@ -898,13 +917,13 @@
         <v>2</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>28</v>
@@ -914,7 +933,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>A$6</f>
@@ -926,20 +945,20 @@
       <c r="D7" s="16">
         <v>1005</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>3</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="10"/>
@@ -950,7 +969,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6">
         <v>70000</v>
@@ -959,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>29</v>
@@ -975,94 +994,126 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B9" s="8" t="str">
         <f>A$8</f>
         <v>24719b19-ea7f-46a2-a808-65c1839ca001</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="16">
         <v>1005</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B10" s="8" t="str">
-        <f t="shared" ref="B10:B11" si="0">A$8</f>
+        <f>A$8</f>
         <v>24719b19-ea7f-46a2-a808-65c1839ca001</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1010</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="16">
-        <v>1005</v>
-      </c>
-      <c r="E10" s="9">
-        <v>2</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>48</v>
-      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f t="shared" ref="B11:B12" si="0">A$8</f>
+        <v>24719b19-ea7f-46a2-a808-65c1839ca001</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1015</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="8" t="str">
+      <c r="H11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>24719b19-ea7f-46a2-a808-65c1839ca001</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1005</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1020</v>
+      </c>
+      <c r="E12" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>49</v>
+      <c r="F12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/vertx-pin/zero-is/src/main/resources/plugin/is/oob/data/is.menu.xlsx
+++ b/vertx-pin/zero-is/src/main/resources/plugin/is/oob/data/is.menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-is/src/main/resources/plugin/is/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFEF9CCE-13F7-5C4D-8C67-1915792E6A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FDE6B1-3743-7F4B-8A3C-4642BBD82A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="65260" yWindow="-3560" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="53780" yWindow="-14160" windowWidth="38400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
   <si>
     <t>name</t>
   </si>
@@ -117,12 +117,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3733ccc2-3799-4095-a01a-b8bdbbe9211d</t>
-  </si>
-  <si>
-    <t>24719b19-ea7f-46a2-a808-65c1839ca001</t>
-  </si>
-  <si>
     <t>EXPAND</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -133,9 +127,6 @@
   <si>
     <t>api</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>af4567a8-9551-44a7-b26a-4b723dbd9d6f</t>
   </si>
   <si>
     <t>zero.document</t>
@@ -150,12 +141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>c7627312-6912-47a6-b1df-f2a334ddf450</t>
-  </si>
-  <si>
-    <t>4801ae80-8f45-48ae-aec1-a897723958f4</t>
-  </si>
-  <si>
     <t>邮件配置</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -180,85 +165,221 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>develop.integration.email</t>
+    <t>DEV-MENU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/integration/ftp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.data.document</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ambient/category/zero.file.tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.data.document.file-tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.integration.dir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/integration/directory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>folder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud-sync</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.integration.rest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>REST配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/integration/rest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.integration.os</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>develop.integration.sms</t>
+    <t>global</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.integration.os-alipay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DEV-MENU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/integration/ftp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/integration/email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/integration/sms</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.data.document</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d266e5ed-f743-4a8f-bf0c-3f4498fc6fba</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ed2005bd-0597-4800-87fd-80072c8d7046</t>
-  </si>
-  <si>
-    <t>cluster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ambient/category/zero.file.tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zero.data.document.file-tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25cc6712-dba9-466e-8794-e3db6f7a1fac</t>
-  </si>
-  <si>
-    <t>develop.integration.dir</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/integration/directory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>folder</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud-sync</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3b08af07-47c4-4299-8d42-b94e035b63d2</t>
+    <t>develop.integration.os-qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.integration.os-github</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.integration.alert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/integration/alert-email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/integration/alert-sms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.integration.alert-email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.integration.alert-sms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付宝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git Hub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wechat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>develop.integration.os-wechat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alipay-circle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>github</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/integration/os-wechat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/integration/os-alipay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/integration/os-qq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/integration/os-github</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e74768a1-16e3-463d-a068-15f60ab48b7e</t>
+  </si>
+  <si>
+    <t>a2bf1432-f3e7-431d-b2b7-ade08f9cb7d1</t>
+  </si>
+  <si>
+    <t>ca53c7a9-e571-4285-942e-56e6e20d89a3</t>
+  </si>
+  <si>
+    <t>85674804-f2ff-4972-9152-79688070fda1</t>
+  </si>
+  <si>
+    <t>a35efe97-ac65-4f20-9b5c-e95a354075fc</t>
+  </si>
+  <si>
+    <t>bebf4cfe-3316-4752-bc0d-a0eb091a493e</t>
+  </si>
+  <si>
+    <t>f555a7b2-e82b-4ee2-a41f-3d119247a1cc</t>
+  </si>
+  <si>
+    <t>769c5b3f-6394-485f-a018-a9f0a928400d</t>
+  </si>
+  <si>
+    <t>e8143b95-f066-42f7-b0da-a742931949ff</t>
+  </si>
+  <si>
+    <t>dd1d12ef-275f-46b3-a255-8dfdf5fbe43f</t>
+  </si>
+  <si>
+    <t>ac966934-332a-41e6-a482-896ef53e9817</t>
+  </si>
+  <si>
+    <t>828deedb-7d36-4d40-bbef-91baa7185078</t>
+  </si>
+  <si>
+    <t>7ed94af4-62c2-4691-aa26-bb8679b76b72</t>
+  </si>
+  <si>
+    <t>a4ea6db8-b746-48c7-91a2-a3e16b013a5b</t>
+  </si>
+  <si>
+    <t>51b841e7-84bf-4c79-b442-95f0abe58d3c</t>
   </si>
 </sst>
 </file>
@@ -399,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -452,6 +573,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:K12"/>
+  <dimension ref="A2:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -873,7 +997,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="12" t="s">
@@ -886,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>24</v>
@@ -895,17 +1019,17 @@
         <v>25</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="8" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>23</v>
@@ -917,27 +1041,27 @@
         <v>2</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="8" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>A$6</f>
-        <v>ed2005bd-0597-4800-87fd-80072c8d7046</v>
+        <v>a2bf1432-f3e7-431d-b2b7-ade08f9cb7d1</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>23</v>
@@ -949,27 +1073,27 @@
         <v>3</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="8" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6">
         <v>70000</v>
@@ -978,30 +1102,30 @@
         <v>1</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="8" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="B9" s="8" t="str">
         <f>A$8</f>
-        <v>24719b19-ea7f-46a2-a808-65c1839ca001</v>
+        <v>85674804-f2ff-4972-9152-79688070fda1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D9" s="16">
         <v>1005</v>
@@ -1010,30 +1134,30 @@
         <v>2</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="8" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="B10" s="8" t="str">
-        <f>A$8</f>
-        <v>24719b19-ea7f-46a2-a808-65c1839ca001</v>
+        <f t="shared" ref="B10:B12" si="0">A$8</f>
+        <v>85674804-f2ff-4972-9152-79688070fda1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D10" s="16">
         <v>1010</v>
@@ -1042,30 +1166,30 @@
         <v>2</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="8" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="B11" s="8" t="str">
-        <f t="shared" ref="B11:B12" si="0">A$8</f>
-        <v>24719b19-ea7f-46a2-a808-65c1839ca001</v>
+        <f t="shared" si="0"/>
+        <v>85674804-f2ff-4972-9152-79688070fda1</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D11" s="16">
         <v>1015</v>
@@ -1074,28 +1198,30 @@
         <v>2</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="8" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>24719b19-ea7f-46a2-a808-65c1839ca001</v>
+        <v>85674804-f2ff-4972-9152-79688070fda1</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D12" s="16">
         <v>1020</v>
@@ -1104,16 +1230,228 @@
         <v>2</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f>A$12</f>
+        <v>769c5b3f-6394-485f-a018-a9f0a928400d</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>48</v>
+      <c r="D13" s="16">
+        <v>1005</v>
+      </c>
+      <c r="E13" s="17">
+        <v>3</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f>A$12</f>
+        <v>769c5b3f-6394-485f-a018-a9f0a928400d</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1010</v>
+      </c>
+      <c r="E14" s="17">
+        <v>3</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f t="shared" ref="B13:B16" si="1">A$8</f>
+        <v>85674804-f2ff-4972-9152-79688070fda1</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1025</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f>A$15</f>
+        <v>ac966934-332a-41e6-a482-896ef53e9817</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1005</v>
+      </c>
+      <c r="E16" s="17">
+        <v>3</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f t="shared" ref="B17:B19" si="2">A$15</f>
+        <v>ac966934-332a-41e6-a482-896ef53e9817</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1010</v>
+      </c>
+      <c r="E17" s="17">
+        <v>3</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>ac966934-332a-41e6-a482-896ef53e9817</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1015</v>
+      </c>
+      <c r="E18" s="17">
+        <v>3</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>ac966934-332a-41e6-a482-896ef53e9817</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1020</v>
+      </c>
+      <c r="E19" s="17">
+        <v>3</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
